--- a/FamTec/FamTec/FamTec/Server/ExcelForm/건물정보(양식).xlsx
+++ b/FamTec/FamTec/FamTec/Server/ExcelForm/건물정보(양식).xlsx
@@ -25,30 +25,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>건물정보</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>건물이름</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -87,12 +63,16 @@
     <t>정화조용량</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>*건물이름</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -123,15 +103,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -162,64 +134,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -235,6 +155,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
@@ -242,19 +199,19 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -568,20 +525,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="4" customWidth="1"/>
     <col min="5" max="43" width="25.7109375" customWidth="1"/>
     <col min="44" max="44" width="20" customWidth="1"/>
     <col min="46" max="46" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66 16384:16384" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66 16384:16384" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -653,35 +610,35 @@
       <c r="XFD1" s="1"/>
     </row>
     <row r="2" spans="1:66 16384:16384" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
